--- a/docs/tuning_params_hurst075.xlsx
+++ b/docs/tuning_params_hurst075.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\yuuki-ubu\robotics-prototypes\pmsm-motor-control-foc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C561C10-C097-4E8D-B7FD-0AFD72115C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59139F7D-178A-4401-924D-07A403B1FC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5A945376-F428-4A38-BD3D-A061DA43121F}"/>
+    <workbookView xWindow="38280" yWindow="17940" windowWidth="29040" windowHeight="18240" xr2:uid="{5A945376-F428-4A38-BD3D-A061DA43121F}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimator parameters" sheetId="2" r:id="rId1"/>
@@ -154,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -299,22 +299,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -333,6 +330,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238749</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0CCE774-27B6-31C3-FFB4-6F0FD8296A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="3438525"/>
+          <a:ext cx="7973049" cy="2848676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63876</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4692F132-D6C9-8788-9492-57C2624D5232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9317934" y="1532284"/>
+          <a:ext cx="7410551" cy="4837336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2627CDFE-A144-4A25-9CD5-663332F97970}">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -659,153 +749,135 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <f>C5/SQRT(3)/2^15*(1-C8/C7)</f>
         <v>4.0594940802395562E-4</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <f>C6/2^15</f>
         <v>6.7138671875E-4</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <f>2*PI()/60</f>
         <v>0.10471975511965977</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="11">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <f>C12/G5*G6*2^15</f>
         <v>110013.70889390371</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>4</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="20">
         <f>G12/H12</f>
         <v>27503.427223475926</v>
       </c>
@@ -820,24 +892,24 @@
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>2.3E-3</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <f>C13/G5*G6/C7*2^15</f>
         <v>2492921.4823249117</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="18">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <f>G13/H13</f>
         <v>9737.9745403316865</v>
       </c>
@@ -852,23 +924,23 @@
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>7.24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <f>G5/G7*SQRT(3)*2*PI()*1000/60/C14*2^15*C11</f>
         <v>15911.602209944749</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>2</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="20">
         <f>G14/H14</f>
         <v>7955.8011049723746</v>
       </c>
@@ -877,58 +949,54 @@
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>2000</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="2">
         <f>C7*G7/PI()*2^15*2^15</f>
         <v>1789.5697066666667</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>3500</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="2">
         <f>C16*2/60*C11*C7*2^15</f>
         <v>955.73333333333346</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="22">
         <f>C15*2/60*C11*C7*2^15*8</f>
         <v>4369.0666666666675</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="16"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -956,5 +1024,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="25" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>